--- a/board-design/power-budget.xlsx
+++ b/board-design/power-budget.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Power Budget</t>
   </si>
@@ -107,7 +107,13 @@
     <t>Green LED</t>
   </si>
   <si>
-    <t>JE2835AGR-N-0002A0000-N0000001</t>
+    <t>150080VS75000</t>
+  </si>
+  <si>
+    <t>Red LED</t>
+  </si>
+  <si>
+    <t>150080RS75000</t>
   </si>
   <si>
     <t xml:space="preserve"> +3.3V Power Rail</t>
@@ -152,7 +158,7 @@
     <t>Plug-in Wall Supply</t>
   </si>
   <si>
-    <t>LRS-75-12</t>
+    <t>ALT-1208</t>
   </si>
   <si>
     <t>110VAC</t>
@@ -164,7 +170,7 @@
     <t>Power Rails Connected to External Power Source 1</t>
   </si>
   <si>
-    <t>LM1085ISX-3.3/NOPB</t>
+    <t>AP62300TWU-7</t>
   </si>
   <si>
     <t xml:space="preserve"> +5V - 30V</t>
@@ -177,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -231,9 +237,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
     <font/>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +257,12 @@
         <bgColor rgb="FFEEECE1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border/>
@@ -359,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -432,92 +449,95 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="8" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -867,7 +887,7 @@
         <v>500.0</v>
       </c>
       <c r="G8" s="19">
-        <f>E8*F8</f>
+        <f t="shared" ref="G8:G10" si="1">E8*F8</f>
         <v>500</v>
       </c>
       <c r="H8" s="20" t="s">
@@ -886,13 +906,14 @@
         <v>17</v>
       </c>
       <c r="E9" s="23">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" s="15">
-        <v>240.0</v>
-      </c>
-      <c r="G9" s="24">
-        <v>240.0</v>
+        <v>100.0</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>18</v>
@@ -900,17 +921,32 @@
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="27" t="s">
-        <v>21</v>
+      <c r="A11" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>8</v>
@@ -927,10 +963,10 @@
       <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -942,8 +978,8 @@
       <c r="C12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>22</v>
+      <c r="D12" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="17">
         <v>1.0</v>
@@ -951,8 +987,8 @@
       <c r="F12" s="15">
         <v>500.0</v>
       </c>
-      <c r="G12" s="24">
-        <f t="shared" ref="G12:G15" si="1">E12*F12</f>
+      <c r="G12" s="27">
+        <f t="shared" ref="G12:G15" si="2">E12*F12</f>
         <v>500</v>
       </c>
       <c r="H12" s="20" t="s">
@@ -971,14 +1007,14 @@
         <v>17</v>
       </c>
       <c r="E13" s="23">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F13" s="15">
-        <v>240.0</v>
+        <v>100.0</v>
       </c>
       <c r="G13" s="19">
-        <f t="shared" si="1"/>
-        <v>960</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>18</v>
@@ -986,14 +1022,24 @@
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="B14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>100.0</v>
+      </c>
       <c r="G14" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>18</v>
@@ -1007,7 +1053,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="20" t="s">
@@ -1016,12 +1062,12 @@
     </row>
     <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="30" t="s">
-        <v>23</v>
+      <c r="B16" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="G16" s="19">
         <f>SUM(G11:G15)</f>
-        <v>1460</v>
+        <v>900</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>18</v>
@@ -1029,49 +1075,49 @@
     </row>
     <row r="17" ht="15.0" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="31">
+      <c r="B17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="29">
         <v>0.25</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="32" t="s">
-        <v>25</v>
+      <c r="B18" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="G18" s="19">
         <f>G16*(1+G17)</f>
-        <v>1825</v>
+        <v>1125</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="29"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="26"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>27</v>
+      <c r="A20" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="17">
         <v>1.0</v>
@@ -1089,30 +1135,30 @@
     </row>
     <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="36">
+      <c r="B21" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="35">
         <f>G20-G18</f>
-        <v>1175</v>
+        <v>1875</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="15.0" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>31</v>
+      <c r="A23" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>8</v>
@@ -1123,41 +1169,41 @@
       <c r="D23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="41" t="s">
-        <v>32</v>
+      <c r="E23" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="A24" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="B24" s="42" t="s">
         <v>36</v>
       </c>
+      <c r="C24" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="E24" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F24" s="44">
-        <v>6000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="G24" s="45">
         <f>F24</f>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="H24" s="46" t="s">
         <v>18</v>
@@ -1165,26 +1211,26 @@
     </row>
     <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="47"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="48"/>
-      <c r="G25" s="36"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="49"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
       <c r="A26" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" s="17">
         <v>1.0</v>
@@ -1202,12 +1248,12 @@
     </row>
     <row r="27" ht="15.0" customHeight="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="35" t="s">
-        <v>41</v>
+      <c r="B27" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="G27" s="45">
         <f>G24-sum(G26)</f>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H27" s="46" t="s">
         <v>18</v>
@@ -1224,7 +1270,7 @@
       <c r="H28" s="55"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="25"/>
+      <c r="A29" s="56"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
       <c r="A30" s="47"/>
